--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -36,7 +36,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/ConceptMap/PN13-FHIR-prescmed-medicationnoncompound-conceptmap</t>
+    <t>https://hl7.fr/ig/fhir/medication/ConceptMap/PN13-FHIR-prescmed-medicationnoncompound-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-noncompound</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-noncompound</t>
   </si>
   <si>
     <t>Display</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:49:33+00:00</t>
+    <t>2025-07-22T19:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,37 +87,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'un médicament non composé d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-noncompound</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'un médicament non composé d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-noncompound</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Code_composant_1</t>
@@ -509,23 +512,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -563,23 +566,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -617,26 +620,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -673,23 +676,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -727,76 +730,76 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -833,14 +836,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -876,195 +879,195 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1101,26 +1104,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1157,23 +1160,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1211,23 +1214,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1265,14 +1268,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1308,23 +1311,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1362,23 +1365,23 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-prescmed-medicationnoncompound-conceptmap.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
